--- a/pcxzf/pcxzf/other/wangshun/基层动态.xlsx
+++ b/pcxzf/pcxzf/other/wangshun/基层动态.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D86"/>
+  <dimension ref="A1:D169"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -424,56 +424,56 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>邱家镇：借助“当场天”开展“安全生产月”宣传活动</t>
+          <t>三十二梁镇：“三考” 扎实开展防止返贫致贫监测帮扶集中排查工作</t>
         </is>
       </c>
       <c r="B1" t="inlineStr">
         <is>
-          <t>2024-06-07</t>
+          <t>2024-09-02</t>
         </is>
       </c>
       <c r="C1" t="inlineStr">
         <is>
-          <t>平昌县邱家镇人民政府</t>
+          <t>平昌县三十二梁镇人民政府</t>
         </is>
       </c>
       <c r="D1" t="inlineStr">
         <is>
-          <t>任佳利</t>
+          <t>党政综合办</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>金宝街道：多措并举确保</t>
+          <t>佛头山管委会：扎实开展防返贫监测 “大排查”行动</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2024-06-07</t>
+          <t>2024-08-30</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>平昌县金宝街道办事处</t>
+          <t>平昌县佛头山管理委员会</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>金宝街道办事处</t>
+          <t>何秀芳</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>澌岸镇：多措并举推进第四次全国文物普查工作</t>
+          <t>澌岸镇：抓实防溺水工作，守护群众生命安全</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2024-06-06</t>
+          <t>2024-08-29</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -490,598 +490,606 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>得胜镇组织开展2024年度基干民兵点验大会</t>
+          <t>佛楼镇：“三心”守牢防返贫监测底线</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2024-06-06</t>
+          <t>2024-08-28</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>得胜镇</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr"/>
+          <t>平昌县佛楼镇人民政府</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>刘芋伶、张耀</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>西兴镇:人民调解解民忧</t>
+          <t>直面高温“烤”验、严守安全防线 灵山镇持续开展高温天气安全生产专项工作</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2024-06-06</t>
+          <t>2024-08-28</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>平昌县西兴镇人民政府</t>
+          <t>平昌县灵山镇人民政府</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>谢强</t>
+          <t>李涵</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>灵山镇：织密防汛网 筑牢安全墙</t>
+          <t>金宝街道：爱心助学、筑梦远航关爱慰问困境学生</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2024-06-06</t>
+          <t>2024-08-28</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>平昌县灵山镇人民政府</t>
+          <t>平昌县金宝街道办事处</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>李涵</t>
+          <t>金宝街道办事处</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>岩口镇：“三抓” 持续保障粮食安全生产</t>
+          <t>佛楼镇：“三抓三确保”开展防返贫集中排查</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2024-06-05</t>
+          <t>2024-08-27</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>平昌县岩口镇人民政府</t>
+          <t>平昌县佛楼镇人民政府</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>郑川</t>
+          <t>昝秋杉</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>得胜镇：深入开展“退役军人最期盼的10件事”大走访</t>
+          <t>佛楼镇：迎战高温酷暑 共筑用电安全防线</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2024-06-05</t>
+          <t>2024-08-26</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>平昌县得胜镇人民政府</t>
+          <t>平昌县佛楼镇人民政府</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>周旋</t>
+          <t>昝秋杉</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>得胜镇：三措施筑牢农村道路“安全线”</t>
+          <t>响滩镇：“三聚焦三确保”扎实开展防返贫致贫监测帮扶集中排查工作</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>2024-06-05</t>
+          <t>2024-08-26</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>平昌县得胜镇人民政府</t>
+          <t>平昌县响滩镇人民政府</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>岳缘</t>
+          <t>周大军</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>佛楼镇：“三强化三到位”全力守护历史文脉</t>
+          <t>泥龙镇：聚焦“三到位”扎实开展防止返贫致贫监测帮扶集中排查工作</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>2024-06-05</t>
+          <t>2024-08-22</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>平昌县佛楼镇人民政府</t>
+          <t>平昌县泥龙镇人民政府</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>王小红</t>
+          <t>王通文</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>点出精气神，验出战斗力——得胜镇组织开展2024年度基干民兵点验大会</t>
+          <t>佛楼镇：扎实开展“四防”宣传教育，全面筑牢辖区安全屏障</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>2024-06-04</t>
+          <t>2024-08-21</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>平昌县得胜镇人民政府</t>
+          <t>平昌县佛楼镇人民政府</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>周旋</t>
+          <t>张弘</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>得胜镇：“三清三拆三治”着力提升人居环境</t>
+          <t>泥龙镇：“三个加”持续推进水污染防治工作</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>2024-06-04</t>
+          <t>2024-08-20</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>平昌县得胜镇人民政府</t>
+          <t>平昌县泥龙镇人民政府</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>陈檩</t>
+          <t>党政办</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>青云镇：安全生产“图”上知责，“码”上  行动</t>
+          <t>灵山镇：召开2024年防止返贫致贫监测帮扶集中排查业务培训会</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>2024-05-31</t>
+          <t>2024-08-19</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>平昌县青云镇人民政府</t>
+          <t>平昌县灵山镇人民政府</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>赵涛</t>
+          <t>李涵</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>得胜镇：打好高水平安全“主动仗”、撑起 万家平安“守护伞”</t>
+          <t>涵水镇：庆祝第七个“中国医师节”</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>2024-05-31</t>
+          <t>2024-08-19</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>平昌县得胜镇人民政府</t>
+          <t>平昌县涵水镇人民政府</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>冉再一</t>
+          <t>何青华</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>佛头山管委会：2024年庆祝“六一”暨国防教育、应急科普进校园活动</t>
+          <t>粉壁镇：扎实做好森林防灭火工作</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>2024-05-31</t>
+          <t>2024-08-19</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>平昌县佛头山管理委员会</t>
+          <t>平昌县粉壁镇人民政府</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>王贤德</t>
+          <t>岳瑞</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>兰草镇：节能减排人人参与，低碳生活从我做起</t>
+          <t>岳家镇：用金“药”匙打开致富门</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>2024-05-28</t>
+          <t>2024-08-16</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>平昌县兰草镇人民政府</t>
+          <t>平昌县岳家镇人民政府</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>刘慧</t>
+          <t>陈冬梅</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>青云镇：小辣椒，托起乡镇振兴大梦想</t>
+          <t>板庙镇：纵深推进大气污染防治，全力守护板庙蓝天白云</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>2024-05-29</t>
+          <t>2024-08-15</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>平昌县青云镇人民政府</t>
+          <t>平昌县板庙镇人民政府</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>杨天</t>
+          <t>余星达、李松林</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>兰草镇：“四强化”抓实低保评议工作，筑牢民生保障底线</t>
+          <t>龙岗镇：“三心”聚力 联合审批建房成效显著</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>2024-05-29</t>
+          <t>2024-08-15</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>平昌县兰草镇人民政府</t>
+          <t>平昌县龙岗镇人民政府</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>王彦舒</t>
+          <t>刘勇</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>佛楼镇：三强化做好居保认证工作</t>
+          <t>兰草镇：中元祭祀讲新风 森林安全有保障</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>2024-05-28</t>
+          <t>2024-08-14</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>平昌县佛楼镇人民政府</t>
+          <t>平昌县兰草镇人民政府</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>朱维举</t>
+          <t>游淦欽</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>鹿鸣小学对标推进国家级节约型公共机构示范单位创建工作</t>
+          <t>江口水乡管理局：“三个一”扎实做好中元节森林防灭火工作</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>2024-05-31</t>
+          <t>2024-08-14</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>鹿鸣小学</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr"/>
+          <t>平昌县江口水乡水利风景区建设管理局</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>杜许昌</t>
+        </is>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>江口街道：全面落实森林防灭火工作</t>
+          <t>粉壁镇：扎实做好中元节文明祭祀工作</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>2024-05-27</t>
+          <t>2024-08-13</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>平昌县江口街道办事处</t>
+          <t>平昌县粉壁镇人民政府</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>蒲竺君</t>
+          <t>岳瑞</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>望京镇：“三举措”抓好秸秆禁烧工作</t>
+          <t>扎实推进“四防”教育 筑牢暑期安全防线</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>2024-05-27</t>
+          <t>2024-08-12</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>平昌县望京镇人民政府</t>
+          <t>平昌县镇龙镇人民政府</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>杨镇滔</t>
+          <t>苟宴平</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>白衣镇：“三个深入”做实防溺水安全工作</t>
+          <t>灵山镇多措并举开展野生菌中毒防控工作</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>2024-05-27</t>
+          <t>2024-08-07</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>平昌县白衣镇人民政府</t>
+          <t>平昌县灵山镇人民政府</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>刘清平</t>
+          <t>李涵</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>板庙镇：演练常态化，安全记心间</t>
+          <t>龙岗镇：“三措”并举抓实“两车”专项整治</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>2024-05-27</t>
+          <t>2024-08-05</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>平昌县板庙镇人民政府</t>
+          <t>平昌县龙岗镇人民政府</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>余星达</t>
+          <t>李佳聪</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>澌岸镇：严把建设关 筑牢安全网</t>
+          <t>望京镇：三举措抓实“两车”整治工作</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>2024-05-24</t>
+          <t>2024-08-02</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>平昌县澌岸镇人民政府</t>
+          <t>平昌县望京镇人民政府</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>澌岸镇  王秋悦</t>
+          <t>张灿</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>佛楼镇：禁止秸秆焚烧 守护辖区蓝天</t>
+          <t>大寨镇：坚持“三力”构建高效防灾减灾体系</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>2024-05-23</t>
+          <t>2024-08-02</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>平昌县佛楼镇人民政府</t>
+          <t>平昌县大寨镇人民政府</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>何俊容</t>
+          <t>大寨镇党政办</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>金宝新区：节能攻坚  从你我做起</t>
+          <t>粉壁镇：喜奏丰收“椒”响曲</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>2024-05-23</t>
+          <t>2024-08-01</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>平昌县金宝新区管理委员会</t>
+          <t>平昌县粉壁镇人民政府</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>金宝新区管委会</t>
+          <t>唐晓梅</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>兰草镇：守护舌尖安全  不负美好“食”光</t>
+          <t>泥龙镇：多措并举 织密暑假安全网</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>2024-05-23</t>
+          <t>2024-08-01</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>平昌县兰草镇人民政府</t>
+          <t>平昌县泥龙镇人民政府</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>刘慧</t>
+          <t>王杰</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>江口水乡管理局：开展2024年防灾减灾宣传活动</t>
+          <t>大寨镇：全方面开展法治学习宣传</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>2024-05-23</t>
+          <t>2024-08-01</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>平昌县江口水乡水利风景区建设管理局</t>
+          <t>平昌县大寨镇人民政府</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>刘芹</t>
+          <t>大寨镇党政办</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>西兴镇：全力以赴做好森林防灭火宣传教育</t>
+          <t>镇龙镇：排查道路隐患 筑牢安全“防护墙”</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>2024-05-22</t>
+          <t>2024-07-31</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>平昌县西兴镇人民政府</t>
+          <t>平昌县镇龙镇人民政府</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>荣芸</t>
+          <t>冯禹</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>西兴镇：多措并举保障镇村道路安全</t>
+          <t>西兴镇：加强宣传教育  提高安全意识</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>2024-05-20</t>
+          <t>2024-07-30</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
@@ -1098,900 +1106,2614 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>兰草镇：平安出行不放松  交通安全记心中</t>
+          <t>青云镇：“三举措”让档案“活”起来</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>2024-05-17</t>
+          <t>2024-07-29</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>平昌县兰草镇人民政府</t>
+          <t>平昌县青云镇人民政府</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>刘慧</t>
+          <t>何晓红</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>兰草镇：“学讲谈讨”并进 推动党纪学习教育走深走实</t>
+          <t>金宝街道：以“千万工程”为引领，加快推进乡村全面振兴</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>2024-05-17</t>
+          <t>2024-07-29</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>平昌县兰草镇人民政府</t>
+          <t>平昌县金宝街道办事处</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>白成</t>
+          <t>金宝街道办事处</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>邱家镇：三举措扎实开展校园周边环境综合治理</t>
+          <t>土垭镇：“三举措”推动党纪学习教育走深走实</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>2024-05-17</t>
+          <t>2024-07-25</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>平昌县邱家镇人民政府</t>
+          <t>平昌县土垭镇人民政府</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>邵崟雄</t>
+          <t>王倩</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>兰草镇：强化保密管理 筑牢信息安全</t>
+          <t>澌岸镇：“爱心妈妈”情暖困境儿童</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>2024-05-16</t>
+          <t>2024-07-25</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>兰草镇人民政府</t>
+          <t>平昌县澌岸镇人民政府</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>白成</t>
+          <t>澌岸镇  佘欢</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>土垭镇：迈好三大步  把牢安全关</t>
+          <t>江口街道：做好访调对接  助力平安建设</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>2024-05-16</t>
+          <t>2024-07-25</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>平昌县土垭镇人民政府</t>
+          <t>平昌县司法局</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>舒程</t>
+          <t>张永强</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>江口街道：安全生产月  我们在行动</t>
+          <t>元山镇：牢固树立安全发展理念 坚决守住安全生产底线</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>2024-05-16</t>
+          <t>2024-07-24</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>平昌县江口街道办事处</t>
+          <t>平昌县元山镇人民政府</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>钟凯迪</t>
+          <t>徐敏</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>青云镇：金银花开  丰收画卷展乡村</t>
+          <t>望京镇：多点发力扎实开展安全生产“大排查大整治大执法”行动</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>2024-05-15</t>
+          <t>2024-07-24</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>平昌县青云镇人民政府</t>
+          <t>平昌县望京镇人民政府</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>杨天</t>
+          <t>马元超</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>青云镇：党建引领  助力集体经济发展</t>
+          <t>南天门管委会：“六个一”抓好防溺水工作</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>2024-05-14</t>
+          <t>2024-07-23</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>平昌县青云镇人民政府</t>
+          <t>平昌县南天门旅游景区管理委员会</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>何江</t>
+          <t>马秀莲</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>元山镇：集中开展“两车”整治  消除道路安全隐患</t>
+          <t>邱家镇：坚持“三聚焦” 绘就好“枫”景</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>2024-05-13</t>
+          <t>2024-07-23</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>平昌县元山镇人民政府</t>
+          <t>平昌县司法局</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>徐敏</t>
+          <t>陈兴富</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>元山镇：未雨绸缪“绷紧弦”  筑牢防汛“安全堤”</t>
+          <t>南天门管委会：抓实巩固拓展脱贫攻坚成果同乡村振兴有效衔接考核评估问题整改工作</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>2024-05-13</t>
+          <t>2024-07-19</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>平昌县元山镇人民政府</t>
+          <t>平昌县南天门旅游景区管理委员会</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>徐敏</t>
+          <t>马秀莲</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>粉壁镇：“三个确保”扎实做好严重精神障碍患者管控工作</t>
+          <t>岳家镇：“三举措”做好团组织关系转接</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>2024-05-13</t>
+          <t>2024-07-19</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>平昌县粉壁镇人民政府</t>
+          <t>平昌县岳家镇人民政府</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>刘云霞</t>
+          <t>陈冬梅</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>佛楼镇：精准发力、多点协同，共筑反诈防火墙</t>
+          <t>澌岸镇：干群齐参与 升学廉礼树新风</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>2024-05-13</t>
+          <t>2024-07-18</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>平昌县佛楼镇人民政府</t>
+          <t>平昌县澌岸镇人民政府</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>向单单</t>
+          <t>澌岸镇  苟鹏</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>油菜喜丰收  田间收割忙</t>
+          <t>响滩镇：弘扬节约精神，培育文明新风</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>2024-05-11</t>
+          <t>2024-07-18</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>平昌县粉壁镇人民政府</t>
+          <t>平昌县响滩镇人民政府</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>产业办公室</t>
+          <t>周大军</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>金宝新区：多措并举推动业委会筹备工作</t>
+          <t>澌岸镇：守好防汛“三条线” 打赢汛期攻坚战</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>2024-05-11</t>
+          <t>2024-07-17</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>平昌县金宝新区管理委员会</t>
+          <t>平昌县澌岸镇人民政府</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>金宝新区管委会</t>
+          <t>澌岸镇  刘飞</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>江家口镇：念好“三字经”做实消防隐患 排查整治工作</t>
+          <t>佛楼镇：“三强化”筑牢防溺水安全防护网</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>2024-05-10</t>
+          <t>2024-07-17</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>平昌县江家口镇人民政府</t>
+          <t>平昌县佛楼镇人民政府</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>李智鹏</t>
+          <t>王小红</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>白衣镇：创新实施安全生产清单制管理</t>
+          <t>望京镇：清理交通风险隐患  确保汛期道路安全</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>2024-05-10</t>
+          <t>2024-07-16</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>平昌县白衣镇人民政府</t>
+          <t>平昌县望京镇人民政府</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>魏龙泉</t>
+          <t>马元超</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>澌岸镇：壮大村集体经济 夯实乡村振兴根基</t>
+          <t>大寨镇：抓好雨后生产生活恢复工作</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>2024-05-10</t>
+          <t>2024-07-16</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>平昌县澌岸镇人民政府</t>
+          <t>平昌县大寨镇人民政府</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>澌岸镇  王杉文</t>
+          <t>大寨镇党政办</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>江口水乡管理局：用“演”避险，以“练”筑防——开展地质灾害应急演练</t>
+          <t>泥龙镇：织牢道路交通安全“三张网”</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>2024-05-10</t>
+          <t>2024-07-16</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>平昌县江口水乡水利风景区建设管理局</t>
+          <t>平昌县泥龙镇人民政府</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>向云春</t>
+          <t>刘泽</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>板庙镇：常态管控整治，抓实自建房安全</t>
+          <t>泥龙镇：三举措筑牢“安全堤”守护生命线</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>2024-05-10</t>
+          <t>2024-07-16</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>平昌县板庙镇人民政府</t>
+          <t>平昌县司法局</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>余星达</t>
+          <t>程港平</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>粉壁镇：多举措推动保密宣传教育工作走深走实</t>
+          <t>岳家镇：全力以赴打好防汛“保卫战”</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>2024-05-09</t>
+          <t>2024-07-15</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>平昌县粉壁镇人民政府</t>
+          <t>平昌县岳家镇人民政府</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>岳瑞</t>
+          <t>陈冬梅</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>镇龙镇：56头肉牛进场 强村公司正式投产</t>
+          <t>南天门管委会：多措并举做好信访稳定工作</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>2024-05-09</t>
+          <t>2024-07-16</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>平昌县镇龙镇人民政府</t>
+          <t>平昌县南天门旅游景区管理委员会</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>陈佳</t>
+          <t>马秀莲</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>佛楼镇：抓好“三度”筑牢全民反诈“防火墙”</t>
+          <t>企业幸福中心“幸福直播间”正式开播</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>2024-05-08</t>
+          <t>2024-07-15</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>平昌县佛楼镇人民政府</t>
+          <t>四川平昌经济开发区管理委员会</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>莫勤</t>
+          <t>平昌经开区</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>澌岸镇：多元投入 常态转运 垃圾清运“有一招”</t>
+          <t>灵山镇：多举措筑牢防汛“安全堤”</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>2024-05-08</t>
+          <t>2024-07-15</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>平昌县澌岸镇人民政府</t>
+          <t>平昌县灵山镇人民政府</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>澌岸镇  苟鹏</t>
+          <t>李涵</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>兰草镇：三措并举推动教育高质量发展</t>
+          <t>板庙镇：三举措推动党纪学习见行见效</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>2024-05-08</t>
+          <t>2024-07-15</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>平昌县兰草镇人民政府</t>
+          <t>平昌县板庙镇人民政府</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>白成</t>
+          <t>曾雪燕</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>佛楼镇：三举措助推单位内部健康运转</t>
+          <t>粉壁镇：淳民风革陋习 推振兴树新风</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>2024-05-07</t>
+          <t>2024-07-15</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>平昌县佛楼镇人民政府</t>
+          <t>平昌县粉壁镇人民政府</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>孙雨程</t>
+          <t>苟槐</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>江口水乡管理局：“三强化”严守涉农领域安全生产底线</t>
+          <t>佛头山管委会：筑牢安全底线 全力防灾减灾</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>2024-05-07</t>
+          <t>2024-07-12</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>平昌县江口水乡水利风景区建设管理局</t>
+          <t>平昌县佛头山管理委员会</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>向云春</t>
+          <t>岳毅</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>澌岸镇：当好“三大员”，筑牢道路交通安全防线</t>
+          <t>板庙镇：骤雨初歇，防汛度讯工作有序有力</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>2024-05-07</t>
+          <t>2024-07-11</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>平昌县澌岸镇人民政府</t>
+          <t>平昌县板庙镇人民政府</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>澌岸镇  佘欢</t>
+          <t>王艺洁</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>灵山镇：筑牢森林“防火墙”，守护青山一片绿</t>
+          <t>得胜镇:落实“雨露计划” 助力乡村振兴</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>2024-05-06</t>
+          <t>2024-07-11</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>平昌县灵山镇人民政府</t>
+          <t>平昌县得胜镇人民政府</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>李涵</t>
+          <t>岳缘</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>江口街道：小宁城遗址文旅发展初现“端倪”</t>
+          <t>响滩镇：众志成城共抗洪灾</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>2024-05-06</t>
+          <t>2024-07-11</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>平昌县江口街道办事处</t>
+          <t>平昌县响滩镇人民政府</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>邓启福</t>
+          <t>曾爱辉</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>单位</t>
+          <t>土兴镇：未“雨”绸缪，遇“雨”而安</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>数量</t>
+          <t>2024-07-10</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>平昌县土兴镇人民政府</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>林磊</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>平昌县邱家镇人民政府</t>
-        </is>
-      </c>
-      <c r="B62" t="n">
-        <v>2</v>
+          <t>江口水乡管理局:全力做好防汛减灾工作</t>
+        </is>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>2024-07-10</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>平昌县江口水乡水利风景区建设管理局</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>刘芹</t>
+        </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>平昌县金宝街道办事处</t>
-        </is>
-      </c>
-      <c r="B63" t="n">
-        <v>1</v>
+          <t>土垭镇：扛牢防汛减灾责任 维护群众生命财产安全</t>
+        </is>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>2024-07-10</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>平昌县土垭镇人民政府</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>李宏标</t>
+        </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>平昌县澌岸镇人民政府</t>
-        </is>
-      </c>
-      <c r="B64" t="n">
-        <v>5</v>
+          <t>粉壁镇：闻讯而动，以“迅”制“汛”</t>
+        </is>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>2024-07-10</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>平昌县粉壁镇人民政府</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>唐晓梅</t>
+        </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>得胜镇</t>
-        </is>
-      </c>
-      <c r="B65" t="n">
-        <v>1</v>
+          <t>青云镇：以“迅”防“汛”  全力打好防汛攻坚战</t>
+        </is>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>2024-07-09</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>平昌县青云镇人民政府</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>党政办沈诗琪</t>
+        </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>平昌县西兴镇人民政府</t>
-        </is>
-      </c>
-      <c r="B66" t="n">
-        <v>3</v>
+          <t>白衣镇：“三聚焦”打好场镇污水治理主动仗</t>
+        </is>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>2024-07-09</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>平昌县白衣镇人民政府</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>沈小龙</t>
+        </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>平昌县灵山镇人民政府</t>
-        </is>
-      </c>
-      <c r="B67" t="n">
-        <v>2</v>
+          <t>平昌经开区：扎实做好防汛减灾工作</t>
+        </is>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>2024-07-09</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>四川平昌经济开发区管理委员会</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>平昌经开区</t>
+        </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>平昌县岩口镇人民政府</t>
-        </is>
-      </c>
-      <c r="B68" t="n">
-        <v>1</v>
+          <t>镇龙镇：多措并举做好防汛减灾各项工作</t>
+        </is>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>2024-07-09</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>平昌县镇龙镇人民政府</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>孙烨</t>
+        </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>平昌县得胜镇人民政府</t>
-        </is>
-      </c>
-      <c r="B69" t="n">
-        <v>5</v>
+          <t>金宝街道：以“汛”为令，多措并举筑牢安全度汛“防护网”</t>
+        </is>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>2024-07-09</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>平昌县金宝街道办事处</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>金宝街道办事处</t>
+        </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>平昌县佛楼镇人民政府</t>
-        </is>
-      </c>
-      <c r="B70" t="n">
-        <v>6</v>
+          <t>粉壁镇：三举措夯实乡村全面振兴</t>
+        </is>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>2024-07-09</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>平昌县粉壁镇人民政府</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>苟槐</t>
+        </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>平昌县青云镇人民政府</t>
-        </is>
-      </c>
-      <c r="B71" t="n">
-        <v>4</v>
+          <t>佛楼镇：清风解愁盼，“民怨”变“民赞”</t>
+        </is>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>2024-07-08</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>平昌县佛楼镇人民政府</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>向单单、张耀</t>
+        </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>平昌县佛头山管理委员会</t>
-        </is>
-      </c>
-      <c r="B72" t="n">
-        <v>1</v>
+          <t>板庙镇：筑牢食药品安全防线，守好“舌尖上安全”</t>
+        </is>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>2024-07-08</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>平昌县板庙镇人民政府</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>余星达</t>
+        </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>平昌县兰草镇人民政府</t>
-        </is>
-      </c>
-      <c r="B73" t="n">
-        <v>6</v>
+          <t>得胜镇：“三坚持”确保夏季食品安全</t>
+        </is>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>2024-07-08</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>平昌县得胜镇人民政府</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>李亚娥</t>
+        </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>鹿鸣小学</t>
-        </is>
-      </c>
-      <c r="B74" t="n">
-        <v>1</v>
+          <t>岳家镇：持续深化“聚引帮”，基层政协有行动</t>
+        </is>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>2024-07-08</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>平昌县岳家镇人民政府</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>苟茹岚</t>
+        </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>平昌县江口街道办事处</t>
-        </is>
-      </c>
-      <c r="B75" t="n">
-        <v>3</v>
+          <t>兰草镇：闻“汛”而动，虽“雨”而安</t>
+        </is>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>2024-07-05</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>平昌县兰草镇人民政府</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>李沅侑</t>
+        </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>平昌县望京镇人民政府</t>
-        </is>
-      </c>
-      <c r="B76" t="n">
-        <v>1</v>
+          <t>土兴镇：小酒厂酿出集体经济大效益</t>
+        </is>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>2024-07-05</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>平昌县土兴镇人民政府</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>罗勇慧</t>
+        </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>平昌县白衣镇人民政府</t>
-        </is>
-      </c>
-      <c r="B77" t="n">
-        <v>2</v>
+          <t>板庙镇：李子产业助力乡村振兴 壮大村级集体经济</t>
+        </is>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>2024-07-05</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>平昌县板庙镇人民政府</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>蒋晓玲</t>
+        </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>平昌县板庙镇人民政府</t>
-        </is>
-      </c>
-      <c r="B78" t="n">
-        <v>2</v>
+          <t>驷马镇：全力筑牢中小学生防溺水安全防线</t>
+        </is>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>2024-07-05</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>平昌县驷马镇人民政府</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>杨璧瑜</t>
+        </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>平昌县金宝新区管理委员会</t>
-        </is>
-      </c>
-      <c r="B79" t="n">
-        <v>2</v>
+          <t>平昌县纸制品包装生产项目正式投产</t>
+        </is>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>2024-07-04</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>四川平昌经济开发区管理委员会</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>平昌经开区</t>
+        </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>平昌县江口水乡水利风景区建设管理局</t>
-        </is>
-      </c>
-      <c r="B80" t="n">
-        <v>3</v>
+          <t>澌岸镇：务实举措筑牢农村道路交通安全屏障</t>
+        </is>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>2024-07-04</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>平昌县澌岸镇人民政府</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>邓良平</t>
+        </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>兰草镇人民政府</t>
-        </is>
-      </c>
-      <c r="B81" t="n">
-        <v>1</v>
+          <t>得胜镇：严把三关开展高龄津贴发放对象年审工作</t>
+        </is>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>2024-07-04</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>平昌县得胜镇人民政府</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>赵苗</t>
+        </is>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>平昌县土垭镇人民政府</t>
-        </is>
-      </c>
-      <c r="B82" t="n">
-        <v>1</v>
+          <t>灵山镇严把“三关”防范有限空间安全风险</t>
+        </is>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>2024-07-04</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>平昌县灵山镇人民政府</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>李涵</t>
+        </is>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>平昌县元山镇人民政府</t>
-        </is>
-      </c>
-      <c r="B83" t="n">
-        <v>2</v>
+          <t>响滩镇：建立“三项机制”，夯实污水治理体系</t>
+        </is>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>2024-07-04</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>平昌县响滩镇人民政府</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>熊炎</t>
+        </is>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>平昌县粉壁镇人民政府</t>
-        </is>
-      </c>
-      <c r="B84" t="n">
-        <v>3</v>
+          <t>大寨镇：文明实践在行动，移风易俗有成效</t>
+        </is>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>2024-07-04</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>平昌县大寨镇人民政府</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>大寨镇党政办</t>
+        </is>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>平昌县江家口镇人民政府</t>
-        </is>
-      </c>
-      <c r="B85" t="n">
-        <v>1</v>
+          <t>佛头山管委会：“三举措”抓实“安全生产月”活动</t>
+        </is>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>2024-07-03</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>平昌县佛头山管理委员会</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>何秀芳</t>
+        </is>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
+          <t>粉壁镇：充电桩运行，为群众服务续航</t>
+        </is>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>2024-07-03</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>平昌县粉壁镇人民政府</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>唐晓梅</t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>粉壁镇：成立全县首家股份经济合作联合总社</t>
+        </is>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>2024-07-02</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>平昌县粉壁镇人民政府</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>唐晓梅</t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>粉壁镇：传达学习省、市、县委全会精神</t>
+        </is>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>2024-07-02</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>平昌县粉壁镇人民政府</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>张俊升</t>
+        </is>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>灵山镇：多措并举防溺水 筑牢防线保平安</t>
+        </is>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>2024-07-02</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>平昌县灵山镇人民政府</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>邓仕林</t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>邱家镇：多向发力打好防溺水工作“组合拳”</t>
+        </is>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>2024-07-02</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>平昌县邱家镇人民政府</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>孙胜武</t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>佛头山管委会：用心办提案 园区焕新颜</t>
+        </is>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>2024-07-02</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>平昌县佛头山管理委员会</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>李臣</t>
+        </is>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>金宝街道：开展河道专项治理，绘就河畅水清新画卷</t>
+        </is>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>2024-07-01</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>平昌县金宝街道办事处</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>金宝街道办事处</t>
+        </is>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>土兴镇开展七一党建活动助企抢订单促经济快发展</t>
+        </is>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>2024-07-01</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>平昌县土兴镇人民政府</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>刘焱</t>
+        </is>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>响滩镇：贯彻落实县委十四届九次全会精神</t>
+        </is>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>2024-07-01</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>平昌县响滩镇人民政府</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>曾爱辉</t>
+        </is>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>佛楼镇：“把握三度”深入学习宣传贯彻省委十二届五次全会、市委五届八次全会和县委十四届九次全会精神</t>
+        </is>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>2024-07-01</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>平昌县佛楼镇人民政府</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>何宗庚、陈沭琎</t>
+        </is>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="inlineStr">
+        <is>
+          <t>板庙镇：学习贯彻县委十四届九次全会精神</t>
+        </is>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>2024-06-28</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>平昌县板庙镇人民政府</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>曾雪燕</t>
+        </is>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="inlineStr">
+        <is>
+          <t>岳家镇：传达学习县委十四届九次全会精神</t>
+        </is>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>2024-06-28</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>平昌县岳家镇人民政府</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>陈冬梅</t>
+        </is>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="inlineStr">
+        <is>
+          <t>澌岸镇：深入学习贯彻县委十四届九次全会精神</t>
+        </is>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>2024-06-28</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>平昌县澌岸镇人民政府</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>岳琳  方鑫</t>
+        </is>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="inlineStr">
+        <is>
+          <t>江口水乡管理局：“四个聚焦”学习贯彻县委十四届九次全会精神</t>
+        </is>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>2024-06-28</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>平昌县江口水乡水利风景区建设管理局</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>杜许昌</t>
+        </is>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="inlineStr">
+        <is>
+          <t>双桥水库召开“七一”座谈会</t>
+        </is>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>2024-06-28</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>双桥水库</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr"/>
+    </row>
+    <row r="101">
+      <c r="A101" t="inlineStr">
+        <is>
+          <t>镇龙镇：学习贯彻县委十四届九次全会精神</t>
+        </is>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>2024-06-27</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
           <t>平昌县镇龙镇人民政府</t>
         </is>
       </c>
-      <c r="B86" t="n">
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>康冰峰</t>
+        </is>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="inlineStr">
+        <is>
+          <t>得胜镇：综合施策推动移风易俗见实效</t>
+        </is>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>2024-06-26</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>平昌县得胜镇人民政府</t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>赵苗</t>
+        </is>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="inlineStr">
+        <is>
+          <t>粉壁镇：奋力推动县委十四届九次全会精神在粉壁落地落实</t>
+        </is>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>2024-06-26</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>平昌县粉壁镇人民政府</t>
+        </is>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>王俊茏</t>
+        </is>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="inlineStr">
+        <is>
+          <t>驷马镇：深入学习贯彻县委十四届九次全会精神</t>
+        </is>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>2024-06-26</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>平昌县驷马镇人民政府</t>
+        </is>
+      </c>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t>曾晗</t>
+        </is>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="inlineStr">
+        <is>
+          <t>金宝街道：传达学习县委十四届九次全会精神</t>
+        </is>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>2024-06-26</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>平昌县金宝街道办事处</t>
+        </is>
+      </c>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t>金宝街道办事处</t>
+        </is>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="inlineStr">
+        <is>
+          <t>三十二梁镇召开传达学习县委十四届九次全会精神专题会议</t>
+        </is>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>2024-06-26</t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>平昌县三十二梁镇人民政府</t>
+        </is>
+      </c>
+      <c r="D106" t="inlineStr">
+        <is>
+          <t>杜磊</t>
+        </is>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="inlineStr">
+        <is>
+          <t>得胜镇：稳步推动集体经济提质增效</t>
+        </is>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>2024-06-26</t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>平昌县得胜镇人民政府</t>
+        </is>
+      </c>
+      <c r="D107" t="inlineStr">
+        <is>
+          <t>张钰杉</t>
+        </is>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="inlineStr">
+        <is>
+          <t>岩口镇：传达学习贯彻县委十四届九次全会精神</t>
+        </is>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>2024-06-26</t>
+        </is>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>平昌县岩口镇人民政府</t>
+        </is>
+      </c>
+      <c r="D108" t="inlineStr">
+        <is>
+          <t>王青松</t>
+        </is>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="inlineStr">
+        <is>
+          <t>大寨镇专题传达学习县委十四届九次全会精神</t>
+        </is>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>2024-06-24</t>
+        </is>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>平昌县大寨镇人民政府</t>
+        </is>
+      </c>
+      <c r="D109" t="inlineStr">
+        <is>
+          <t>大寨镇党政办</t>
+        </is>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="inlineStr">
+        <is>
+          <t>得胜镇：警示教育入人心，廉洁自律守初心</t>
+        </is>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>2024-06-24</t>
+        </is>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>平昌县得胜镇人民政府</t>
+        </is>
+      </c>
+      <c r="D110" t="inlineStr">
+        <is>
+          <t>赵苗</t>
+        </is>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="inlineStr">
+        <is>
+          <t>云台镇：深入贯彻落实县委十四届九次全会精神</t>
+        </is>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>2024-06-24</t>
+        </is>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>平昌县云台镇人民政府</t>
+        </is>
+      </c>
+      <c r="D111" t="inlineStr">
+        <is>
+          <t>云台镇</t>
+        </is>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="inlineStr">
+        <is>
+          <t>得胜镇：学习贯彻平昌县委十四届九次全会精神</t>
+        </is>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>2024-06-21</t>
+        </is>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>平昌县得胜镇人民政府</t>
+        </is>
+      </c>
+      <c r="D112" t="inlineStr">
+        <is>
+          <t>赵艺榕</t>
+        </is>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="inlineStr">
+        <is>
+          <t>平昌经开区：召开传达学习县委十四届九次全会精神专题会议</t>
+        </is>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>2024-06-21</t>
+        </is>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>四川平昌经济开发区管理委员会</t>
+        </is>
+      </c>
+      <c r="D113" t="inlineStr">
+        <is>
+          <t>平昌经开区管委会</t>
+        </is>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="inlineStr">
+        <is>
+          <t>兰草镇：召开学习贯彻县委十四届九次全会精神专题会</t>
+        </is>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>2024-06-21</t>
+        </is>
+      </c>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>平昌县兰草镇人民政府</t>
+        </is>
+      </c>
+      <c r="D114" t="inlineStr">
+        <is>
+          <t>刘慧</t>
+        </is>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="inlineStr">
+        <is>
+          <t>泥龙镇：“六字诀”深入贯彻落实中共平昌县委十四届九次全会精神</t>
+        </is>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>2024-06-20</t>
+        </is>
+      </c>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t>平昌县泥龙镇人民政府</t>
+        </is>
+      </c>
+      <c r="D115" t="inlineStr">
+        <is>
+          <t>王通文</t>
+        </is>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="inlineStr">
+        <is>
+          <t>西兴镇：学习贯彻县委十四届九次全会精神</t>
+        </is>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>2024-06-20</t>
+        </is>
+      </c>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t>平昌县西兴镇人民政府</t>
+        </is>
+      </c>
+      <c r="D116" t="inlineStr">
+        <is>
+          <t>荣芸</t>
+        </is>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="inlineStr">
+        <is>
+          <t>笔山镇：领会全会精神，开拓发展大道</t>
+        </is>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>2024-06-20</t>
+        </is>
+      </c>
+      <c r="C117" t="inlineStr">
+        <is>
+          <t>平昌县笔山镇人民政府</t>
+        </is>
+      </c>
+      <c r="D117" t="inlineStr">
+        <is>
+          <t>杜明哲</t>
+        </is>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="inlineStr">
+        <is>
+          <t>邱家镇：学习贯彻县委十四届九次全会精神</t>
+        </is>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>2024-06-20</t>
+        </is>
+      </c>
+      <c r="C118" t="inlineStr">
+        <is>
+          <t>平昌县邱家镇人民政府</t>
+        </is>
+      </c>
+      <c r="D118" t="inlineStr">
+        <is>
+          <t>邵崟雄</t>
+        </is>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="inlineStr">
+        <is>
+          <t>佛头山管委会：召开县委十四届九次全会 精神专题宣讲会</t>
+        </is>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>2024-06-20</t>
+        </is>
+      </c>
+      <c r="C119" t="inlineStr">
+        <is>
+          <t>平昌县佛头山管理委员会</t>
+        </is>
+      </c>
+      <c r="D119" t="inlineStr">
+        <is>
+          <t>何秀芳</t>
+        </is>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="inlineStr">
+        <is>
+          <t>澌岸镇：扎实开展“持续深化‘聚引帮’·同心共建 现代化平昌”专项行动</t>
+        </is>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>2024-06-20</t>
+        </is>
+      </c>
+      <c r="C120" t="inlineStr">
+        <is>
+          <t>平昌县澌岸镇人民政府</t>
+        </is>
+      </c>
+      <c r="D120" t="inlineStr">
+        <is>
+          <t>澌岸镇  王杉文</t>
+        </is>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="inlineStr">
+        <is>
+          <t>白衣镇深入学习贯彻县委十四届九次全会精神</t>
+        </is>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>2024-06-19</t>
+        </is>
+      </c>
+      <c r="C121" t="inlineStr">
+        <is>
+          <t>平昌县白衣镇人民政府</t>
+        </is>
+      </c>
+      <c r="D121" t="inlineStr">
+        <is>
+          <t>刘清平</t>
+        </is>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="inlineStr">
+        <is>
+          <t>泥龙镇：“三聚力”学习贯彻县委十四届九次全会精神</t>
+        </is>
+      </c>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>2024-06-19</t>
+        </is>
+      </c>
+      <c r="C122" t="inlineStr">
+        <is>
+          <t>平昌县泥龙镇人民政府</t>
+        </is>
+      </c>
+      <c r="D122" t="inlineStr">
+        <is>
+          <t>王杰</t>
+        </is>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="inlineStr">
+        <is>
+          <t>得胜镇：强化监督执纪问责，助推城乡环境大提升</t>
+        </is>
+      </c>
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>2024-06-19</t>
+        </is>
+      </c>
+      <c r="C123" t="inlineStr">
+        <is>
+          <t>平昌县得胜镇人民政府</t>
+        </is>
+      </c>
+      <c r="D123" t="inlineStr">
+        <is>
+          <t>李全明</t>
+        </is>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="inlineStr">
+        <is>
+          <t>涵水镇：念好“三字诀” 筑牢防汛“安全堤”</t>
+        </is>
+      </c>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>2024-06-18</t>
+        </is>
+      </c>
+      <c r="C124" t="inlineStr">
+        <is>
+          <t>平昌县涵水镇人民政府</t>
+        </is>
+      </c>
+      <c r="D124" t="inlineStr">
+        <is>
+          <t>何青华</t>
+        </is>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="inlineStr">
+        <is>
+          <t>得胜镇：精准监督执纪，护航产业发展</t>
+        </is>
+      </c>
+      <c r="B125" t="inlineStr">
+        <is>
+          <t>2024-06-18</t>
+        </is>
+      </c>
+      <c r="C125" t="inlineStr">
+        <is>
+          <t>平昌县得胜镇人民政府</t>
+        </is>
+      </c>
+      <c r="D125" t="inlineStr">
+        <is>
+          <t>李全明</t>
+        </is>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="inlineStr">
+        <is>
+          <t>白衣镇：“三个一批”抓实历史文化传承保护和创新发展</t>
+        </is>
+      </c>
+      <c r="B126" t="inlineStr">
+        <is>
+          <t>2024-06-17</t>
+        </is>
+      </c>
+      <c r="C126" t="inlineStr">
+        <is>
+          <t>平昌县白衣镇人民政府</t>
+        </is>
+      </c>
+      <c r="D126" t="inlineStr">
+        <is>
+          <t>魏龙泉</t>
+        </is>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="inlineStr">
+        <is>
+          <t>岩口镇:积极开展稻水象甲病虫害统防统治</t>
+        </is>
+      </c>
+      <c r="B127" t="inlineStr">
+        <is>
+          <t>2024-06-14</t>
+        </is>
+      </c>
+      <c r="C127" t="inlineStr">
+        <is>
+          <t>平昌县岩口镇人民政府</t>
+        </is>
+      </c>
+      <c r="D127" t="inlineStr">
+        <is>
+          <t>彭殿钟</t>
+        </is>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="inlineStr">
+        <is>
+          <t>佛头山管委会：强化食品安全“两个责任”培训  提升包保干部履职能力</t>
+        </is>
+      </c>
+      <c r="B128" t="inlineStr">
+        <is>
+          <t>2024-06-14</t>
+        </is>
+      </c>
+      <c r="C128" t="inlineStr">
+        <is>
+          <t>平昌县佛头山管理委员会</t>
+        </is>
+      </c>
+      <c r="D128" t="inlineStr">
+        <is>
+          <t>唐家汉</t>
+        </is>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="inlineStr">
+        <is>
+          <t>佛楼镇：“三聚焦”扎实开展“安全生产月”活动</t>
+        </is>
+      </c>
+      <c r="B129" t="inlineStr">
+        <is>
+          <t>2024-06-14</t>
+        </is>
+      </c>
+      <c r="C129" t="inlineStr">
+        <is>
+          <t>平昌县佛楼镇人民政府</t>
+        </is>
+      </c>
+      <c r="D129" t="inlineStr">
+        <is>
+          <t>莫勤</t>
+        </is>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="inlineStr">
+        <is>
+          <t>青云镇：“四力齐发”有序推进夯基强本行动</t>
+        </is>
+      </c>
+      <c r="B130" t="inlineStr">
+        <is>
+          <t>2024-06-14</t>
+        </is>
+      </c>
+      <c r="C130" t="inlineStr">
+        <is>
+          <t>平昌县青云镇人民政府</t>
+        </is>
+      </c>
+      <c r="D130" t="inlineStr">
+        <is>
+          <t>郭焘溟</t>
+        </is>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="inlineStr">
+        <is>
+          <t>西兴镇：“四定”“四不定”推进人民调解工作</t>
+        </is>
+      </c>
+      <c r="B131" t="inlineStr">
+        <is>
+          <t>2024-06-13</t>
+        </is>
+      </c>
+      <c r="C131" t="inlineStr">
+        <is>
+          <t>平昌县西兴镇人民政府</t>
+        </is>
+      </c>
+      <c r="D131" t="inlineStr">
+        <is>
+          <t>谢强</t>
+        </is>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="inlineStr">
+        <is>
+          <t>邱家镇：道路养护不停歇 路域环境大提升</t>
+        </is>
+      </c>
+      <c r="B132" t="inlineStr">
+        <is>
+          <t>2024-06-13</t>
+        </is>
+      </c>
+      <c r="C132" t="inlineStr">
+        <is>
+          <t>平昌县邱家镇人民政府</t>
+        </is>
+      </c>
+      <c r="D132" t="inlineStr">
+        <is>
+          <t>任佳利</t>
+        </is>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="inlineStr">
+        <is>
+          <t>灵山镇：高质量推进国储林项目建设</t>
+        </is>
+      </c>
+      <c r="B133" t="inlineStr">
+        <is>
+          <t>2024-06-12</t>
+        </is>
+      </c>
+      <c r="C133" t="inlineStr">
+        <is>
+          <t>平昌县灵山镇人民政府</t>
+        </is>
+      </c>
+      <c r="D133" t="inlineStr">
+        <is>
+          <t>陈韬</t>
+        </is>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="inlineStr">
+        <is>
+          <t>粉壁镇：吹响普法宣传“大喇叭”</t>
+        </is>
+      </c>
+      <c r="B134" t="inlineStr">
+        <is>
+          <t>2024-06-12</t>
+        </is>
+      </c>
+      <c r="C134" t="inlineStr">
+        <is>
+          <t>平昌县粉壁镇人民政府</t>
+        </is>
+      </c>
+      <c r="D134" t="inlineStr">
+        <is>
+          <t>刘云霞</t>
+        </is>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="inlineStr">
+        <is>
+          <t>单位</t>
+        </is>
+      </c>
+      <c r="B135" t="inlineStr">
+        <is>
+          <t>数量</t>
+        </is>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="inlineStr">
+        <is>
+          <t>平昌县三十二梁镇人民政府</t>
+        </is>
+      </c>
+      <c r="B136" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="inlineStr">
+        <is>
+          <t>平昌县佛头山管理委员会</t>
+        </is>
+      </c>
+      <c r="B137" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="inlineStr">
+        <is>
+          <t>平昌县澌岸镇人民政府</t>
+        </is>
+      </c>
+      <c r="B138" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="inlineStr">
+        <is>
+          <t>平昌县佛楼镇人民政府</t>
+        </is>
+      </c>
+      <c r="B139" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="inlineStr">
+        <is>
+          <t>平昌县灵山镇人民政府</t>
+        </is>
+      </c>
+      <c r="B140" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="inlineStr">
+        <is>
+          <t>平昌县金宝街道办事处</t>
+        </is>
+      </c>
+      <c r="B141" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="inlineStr">
+        <is>
+          <t>平昌县响滩镇人民政府</t>
+        </is>
+      </c>
+      <c r="B142" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="inlineStr">
+        <is>
+          <t>平昌县泥龙镇人民政府</t>
+        </is>
+      </c>
+      <c r="B143" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="inlineStr">
+        <is>
+          <t>平昌县涵水镇人民政府</t>
+        </is>
+      </c>
+      <c r="B144" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="inlineStr">
+        <is>
+          <t>平昌县粉壁镇人民政府</t>
+        </is>
+      </c>
+      <c r="B145" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="inlineStr">
+        <is>
+          <t>平昌县岳家镇人民政府</t>
+        </is>
+      </c>
+      <c r="B146" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="inlineStr">
+        <is>
+          <t>平昌县板庙镇人民政府</t>
+        </is>
+      </c>
+      <c r="B147" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" t="inlineStr">
+        <is>
+          <t>平昌县龙岗镇人民政府</t>
+        </is>
+      </c>
+      <c r="B148" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" t="inlineStr">
+        <is>
+          <t>平昌县兰草镇人民政府</t>
+        </is>
+      </c>
+      <c r="B149" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" t="inlineStr">
+        <is>
+          <t>平昌县江口水乡水利风景区建设管理局</t>
+        </is>
+      </c>
+      <c r="B150" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" t="inlineStr">
+        <is>
+          <t>平昌县镇龙镇人民政府</t>
+        </is>
+      </c>
+      <c r="B151" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" t="inlineStr">
+        <is>
+          <t>平昌县望京镇人民政府</t>
+        </is>
+      </c>
+      <c r="B152" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" t="inlineStr">
+        <is>
+          <t>平昌县大寨镇人民政府</t>
+        </is>
+      </c>
+      <c r="B153" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" t="inlineStr">
+        <is>
+          <t>平昌县西兴镇人民政府</t>
+        </is>
+      </c>
+      <c r="B154" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" t="inlineStr">
+        <is>
+          <t>平昌县青云镇人民政府</t>
+        </is>
+      </c>
+      <c r="B155" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" t="inlineStr">
+        <is>
+          <t>平昌县土垭镇人民政府</t>
+        </is>
+      </c>
+      <c r="B156" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" t="inlineStr">
+        <is>
+          <t>平昌县司法局</t>
+        </is>
+      </c>
+      <c r="B157" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" t="inlineStr">
+        <is>
+          <t>平昌县元山镇人民政府</t>
+        </is>
+      </c>
+      <c r="B158" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" t="inlineStr">
+        <is>
+          <t>平昌县南天门旅游景区管理委员会</t>
+        </is>
+      </c>
+      <c r="B159" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" t="inlineStr">
+        <is>
+          <t>四川平昌经济开发区管理委员会</t>
+        </is>
+      </c>
+      <c r="B160" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" t="inlineStr">
+        <is>
+          <t>平昌县得胜镇人民政府</t>
+        </is>
+      </c>
+      <c r="B161" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" t="inlineStr">
+        <is>
+          <t>平昌县土兴镇人民政府</t>
+        </is>
+      </c>
+      <c r="B162" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" t="inlineStr">
+        <is>
+          <t>平昌县白衣镇人民政府</t>
+        </is>
+      </c>
+      <c r="B163" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" t="inlineStr">
+        <is>
+          <t>平昌县驷马镇人民政府</t>
+        </is>
+      </c>
+      <c r="B164" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" t="inlineStr">
+        <is>
+          <t>平昌县邱家镇人民政府</t>
+        </is>
+      </c>
+      <c r="B165" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" t="inlineStr">
+        <is>
+          <t>双桥水库</t>
+        </is>
+      </c>
+      <c r="B166" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" t="inlineStr">
+        <is>
+          <t>平昌县岩口镇人民政府</t>
+        </is>
+      </c>
+      <c r="B167" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" t="inlineStr">
+        <is>
+          <t>平昌县云台镇人民政府</t>
+        </is>
+      </c>
+      <c r="B168" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" t="inlineStr">
+        <is>
+          <t>平昌县笔山镇人民政府</t>
+        </is>
+      </c>
+      <c r="B169" t="n">
         <v>1</v>
       </c>
     </row>
